--- a/data/trans_camb/P34A_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-10.06969151582213</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-4.907116878866258</v>
+        <v>-4.907116878866235</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-24.33209389097467</v>
@@ -664,7 +664,7 @@
         <v>-11.7507855610898</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-5.926633760995021</v>
+        <v>-5.926633760995009</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-31.02300189140389</v>
+        <v>-31.47707998771227</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-17.88978322955512</v>
+        <v>-17.4937075266926</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-12.54410895185023</v>
+        <v>-12.7010846472007</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-26.32236660882455</v>
+        <v>-25.91723458923061</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-14.38464902866778</v>
+        <v>-14.54294113480049</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-10.42867153433687</v>
+        <v>-9.79826759648456</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-27.78166426512782</v>
+        <v>-27.39629954821641</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-15.15164685205547</v>
+        <v>-15.18467174250197</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-10.41282599862636</v>
+        <v>-10.3277598943893</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-21.21193025821971</v>
+        <v>-21.07534597776025</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-7.568998594170663</v>
+        <v>-7.252066608775172</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03847306144449358</v>
+        <v>-0.4254942371427673</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-17.31283747415356</v>
+        <v>-17.18718218098315</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-5.797623939572331</v>
+        <v>-5.609823656177804</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.06280541832016046</v>
+        <v>0.01590840444614669</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-21.34420917828755</v>
+        <v>-21.0048548461436</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-8.404980878070617</v>
+        <v>-8.49196938139271</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-1.983860828377629</v>
+        <v>-2.143286389154095</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.175785246543884</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.08566287745913476</v>
+        <v>-0.08566287745913437</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.4405715784669931</v>
@@ -769,7 +769,7 @@
         <v>-0.2127668159622209</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1073112081014067</v>
+        <v>-0.1073112081014065</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5664194076557273</v>
+        <v>-0.5731314316770973</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3229591858991425</v>
+        <v>-0.3182591866460737</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2350739491736789</v>
+        <v>-0.2319373881813143</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.442079388104008</v>
+        <v>-0.4348259585826204</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2424177608771242</v>
+        <v>-0.2431130174054659</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1723837647485519</v>
+        <v>-0.165969534259508</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4844024836301631</v>
+        <v>-0.4834896934290785</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2658557594554717</v>
+        <v>-0.2652650943054449</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1819132343938577</v>
+        <v>-0.180574980721539</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.4374013661317444</v>
+        <v>-0.4325738314951472</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1513990655036509</v>
+        <v>-0.1499431397903832</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.0005240126117567809</v>
+        <v>-0.009603388678638547</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.3120822216633246</v>
+        <v>-0.3135661676351047</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1057314025523884</v>
+        <v>-0.1015588689687613</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.001361532474420131</v>
+        <v>0.001301173714114964</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.3943014723513095</v>
+        <v>-0.3934047521833091</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1603340856138731</v>
+        <v>-0.1587525132850175</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.03696868859501725</v>
+        <v>-0.04029272190670579</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-10.67350088373509</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-4.780154957571082</v>
+        <v>-4.780154957571087</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-13.147765995017</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-24.32614338932706</v>
+        <v>-24.34178027766098</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-15.00132698686345</v>
+        <v>-14.93212018207892</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.291274105027151</v>
+        <v>-9.433279234599109</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-17.11918285519553</v>
+        <v>-17.01958151965797</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.072139355486361</v>
+        <v>-6.145773853366031</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.166254991126435</v>
+        <v>-2.835112153248631</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-19.74773506728376</v>
+        <v>-19.68421843025392</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-8.766012843478594</v>
+        <v>-9.303059205144219</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.776605482020974</v>
+        <v>-4.647246338908373</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-15.6067036478815</v>
+        <v>-16.04962033953655</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-6.484690680055875</v>
+        <v>-6.238196536126395</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.2182774737485693</v>
+        <v>-0.2638275763640394</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-8.841083814968938</v>
+        <v>-8.506191891254772</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.901418118674937</v>
+        <v>3.10746091792878</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.278196911701961</v>
+        <v>5.158433312902668</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-13.81275985640852</v>
+        <v>-13.7899950365684</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-2.808233559731247</v>
+        <v>-2.963712126660777</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.351646691496566</v>
+        <v>1.30392509158437</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.2452788993700346</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1098487890320907</v>
+        <v>-0.1098487890320908</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.3057848453498968</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5322333228374089</v>
+        <v>-0.5409072134797871</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3314690630161932</v>
+        <v>-0.3306890763242669</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2051766617379568</v>
+        <v>-0.2064902718250304</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3781451534118114</v>
+        <v>-0.3834738096451376</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1357960361416676</v>
+        <v>-0.1389032810881533</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.06991134959071263</v>
+        <v>-0.06305181696586393</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4401666187771167</v>
+        <v>-0.4386562720278105</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1944799831762524</v>
+        <v>-0.2065751207058894</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.105763643384565</v>
+        <v>-0.1067618305620044</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.3737939711515996</v>
+        <v>-0.3860051572070153</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1547365664418815</v>
+        <v>-0.1528483154460274</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.005758811700180378</v>
+        <v>-0.004963646226994644</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.2137948955000222</v>
+        <v>-0.2102410812603074</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07247168170609017</v>
+        <v>0.07356953752089336</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1299673365253615</v>
+        <v>0.1263146538784524</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.3309795721572535</v>
+        <v>-0.3269907649794864</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.06705021228575388</v>
+        <v>-0.06675448371829798</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.03201425916834182</v>
+        <v>0.03026279109956405</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>2.072288255600652</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-1.580476342319193</v>
+        <v>-1.580476342319198</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-12.61939954737731</v>
@@ -1092,7 +1092,7 @@
         <v>-0.6393333007374935</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-2.405036162137608</v>
+        <v>-2.405036162137603</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-18.32059295357083</v>
+        <v>-18.01859681486638</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.467251324832532</v>
+        <v>-7.771402017460824</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.474095579223415</v>
+        <v>-7.650532892026423</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-15.3315188648356</v>
+        <v>-15.72893876046136</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.68820625251771</v>
+        <v>-2.543997164815185</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-5.185707705809684</v>
+        <v>-5.659541478221998</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-15.53087907180679</v>
+        <v>-15.66454093618848</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.702748666463455</v>
+        <v>-3.929038940713272</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-5.145785599378921</v>
+        <v>-5.255656522394268</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-10.42485684850084</v>
+        <v>-9.795576613055578</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.637851011156725</v>
+        <v>1.228497117188008</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6878753273042926</v>
+        <v>0.5266259013368769</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-6.161645915956237</v>
+        <v>-6.720527291107375</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.041059103249124</v>
+        <v>6.893482015486745</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.839956528436398</v>
+        <v>2.52060053612607</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-9.57461288471978</v>
+        <v>-9.543925927686459</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.391581763774163</v>
+        <v>2.592558648656019</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6491569535474169</v>
+        <v>0.6149610374293939</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.05308219055506797</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.04048430335115094</v>
+        <v>-0.04048430335115109</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.3411614779114144</v>
@@ -1197,7 +1197,7 @@
         <v>-0.01728417369928802</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.06501939243819156</v>
+        <v>-0.06501939243819142</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4940857454218549</v>
+        <v>-0.492075143475387</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2059330417428916</v>
+        <v>-0.2090092468634084</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2016603216219822</v>
+        <v>-0.2079223626442851</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3771059745678563</v>
+        <v>-0.3817612607019498</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.0636300607542995</v>
+        <v>-0.06363185508938925</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1275505977677299</v>
+        <v>-0.1363357333799586</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4080514238224996</v>
+        <v>-0.4088157725636113</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.09784178295473284</v>
+        <v>-0.1033321253734668</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1348362508516069</v>
+        <v>-0.1364188437797423</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.3077125220434743</v>
+        <v>-0.2943753886079749</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.05019809830229732</v>
+        <v>0.03698150119526476</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.0196422918335295</v>
+        <v>0.01569444328020825</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.171604212838034</v>
+        <v>-0.1821713679010874</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1911018010533266</v>
+        <v>0.1860103321937406</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07854132301881939</v>
+        <v>0.06842564950796437</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.2692845532178229</v>
+        <v>-0.2699769690171632</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.06725004967022363</v>
+        <v>0.072944430654046</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.0181929692147576</v>
+        <v>0.01883826113943537</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-6.378134803910424</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-11.09959946100318</v>
+        <v>-11.09959946100317</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-15.94837303885692</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-23.23289354287789</v>
+        <v>-22.86752621090221</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-13.78289746361836</v>
+        <v>-14.45567488828762</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-16.81899731251601</v>
+        <v>-17.21241151704891</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-22.10323529782001</v>
+        <v>-21.56961917080931</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-13.5406281167935</v>
+        <v>-13.43665570729562</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-17.34048058307023</v>
+        <v>-17.55143439728268</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-20.12606739671772</v>
+        <v>-20.41120365141756</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-11.35516797345733</v>
+        <v>-11.60955678932525</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-15.17518478373285</v>
+        <v>-14.54880215378239</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-11.8777312770581</v>
+        <v>-11.36784062144191</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.795197071416812</v>
+        <v>-1.567065653971258</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-5.926364676768856</v>
+        <v>-6.231309622317036</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-8.798889337470651</v>
+        <v>-7.68210137622357</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3917105610867896</v>
+        <v>1.33914487007907</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-4.733129101214113</v>
+        <v>-5.238372366772418</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-11.51973490144231</v>
+        <v>-11.43065908808992</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.805563357212979</v>
+        <v>-2.252463845178829</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-6.555245643708217</v>
+        <v>-6.640510714538031</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.2368972060558295</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.3292308098675824</v>
+        <v>-0.3292308098675823</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.3592622789527223</v>
@@ -1402,7 +1402,7 @@
         <v>-0.1508285011610021</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.2624804902467985</v>
+        <v>-0.2624804902467984</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.4222421636930123</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6220031640828972</v>
+        <v>-0.6141102808449282</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.376906984101639</v>
+        <v>-0.3842542477038868</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4388778057195573</v>
+        <v>-0.4424290823171274</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4812420298638984</v>
+        <v>-0.4726313600526528</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2954630130716676</v>
+        <v>-0.2896599280713915</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3667585110740562</v>
+        <v>-0.3771298676355649</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5059588370997286</v>
+        <v>-0.5070442067266568</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2812328099022186</v>
+        <v>-0.2869727152900076</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.375454987811448</v>
+        <v>-0.3623628118091591</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.3771483173798015</v>
+        <v>-0.3696327123877702</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.05880799081488702</v>
+        <v>-0.05563263518156162</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1916079286416968</v>
+        <v>-0.1996562490820766</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.2268406991523914</v>
+        <v>-0.2044551947373341</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.01025651324872795</v>
+        <v>0.03248788973760844</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1209841337548321</v>
+        <v>-0.1412291714128279</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.3257829095274076</v>
+        <v>-0.3228728735476499</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.04962170818296417</v>
+        <v>-0.06307976237548162</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1864499810041031</v>
+        <v>-0.1914350087150163</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-4.97022119325074</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-6.388877372627844</v>
+        <v>-6.388877372627833</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-20.59568148409492</v>
+        <v>-20.82907019454607</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-9.526415865210382</v>
+        <v>-9.585232934935977</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-9.992220964490549</v>
+        <v>-10.30313167608568</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-17.25734054516161</v>
+        <v>-17.27103204395198</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.576368370948058</v>
+        <v>-5.27792432268315</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-7.617076460928317</v>
+        <v>-7.681927774699675</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-18.31919312131993</v>
+        <v>-18.3118189043966</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-6.412893518633102</v>
+        <v>-6.651345137216756</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-7.92154819630877</v>
+        <v>-7.978262029876316</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-15.93965035297421</v>
+        <v>-16.25210980115738</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-4.630165393775906</v>
+        <v>-4.556250669991735</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-5.262859455037342</v>
+        <v>-5.043271214280319</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-12.65810666692332</v>
+        <v>-12.37028871956541</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.4759083202846301</v>
+        <v>-0.6054696308454094</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-3.026808165709686</v>
+        <v>-3.208889079811274</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-14.97436610148878</v>
+        <v>-15.0677556524729</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-3.117612779543312</v>
+        <v>-3.339538271482758</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-4.629400813301585</v>
+        <v>-4.716521481239685</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.1147424110492498</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.1474934746624129</v>
+        <v>-0.1474934746624126</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4887668115323275</v>
+        <v>-0.4915484708822583</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2273183431737394</v>
+        <v>-0.227507127219742</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2389009687202203</v>
+        <v>-0.2442717186510311</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.366939121623468</v>
+        <v>-0.3674754798489445</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1184720133961192</v>
+        <v>-0.1133352453046104</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1626517325865873</v>
+        <v>-0.1620062210183869</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.411994488937537</v>
+        <v>-0.4155107317482689</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1457258796127793</v>
+        <v>-0.1515073278637046</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1802320548181629</v>
+        <v>-0.1799600544075815</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.4019027407661729</v>
+        <v>-0.4078319914719448</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1181198930322986</v>
+        <v>-0.115505561868943</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.132672542329949</v>
+        <v>-0.1296671198820366</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.2843352691781354</v>
+        <v>-0.2791026212466888</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.01052250901850048</v>
+        <v>-0.01367227472385302</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.06781832743921533</v>
+        <v>-0.07154182668092179</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.3514959478820522</v>
+        <v>-0.3522861612407352</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.07417952246144385</v>
+        <v>-0.07823669892719416</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.1087926960158164</v>
+        <v>-0.1105343774984616</v>
       </c>
     </row>
     <row r="34">
